--- a/KyoceraAVX.xlsx
+++ b/KyoceraAVX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D3887C-0380-44C1-B98E-7B8CC5673AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345EDAF4-A337-4B18-8DC1-F8D6EB4FBC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{8E876107-3061-4174-A041-0A66F8CCC5FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Teil</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>aliexpress.com</t>
+  </si>
+  <si>
+    <t>Differntial TRX7881</t>
+  </si>
+  <si>
+    <t>trashop.eu</t>
+  </si>
+  <si>
+    <t>Versand trashop.eu</t>
+  </si>
+  <si>
+    <t>Versandkosten für alle auf trashop.eu bestelten Teile</t>
+  </si>
+  <si>
+    <t>JetKo Tomahawk Belted Reifen</t>
   </si>
 </sst>
 </file>
@@ -394,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -409,10 +424,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -425,6 +438,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -513,7 +529,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>350520</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>7619</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -566,7 +582,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1957822</xdr:colOff>
+          <xdr:colOff>1958340</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -676,9 +692,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>650631</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>164764</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -688,7 +704,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76316B36-7427-536C-C317-42EDC5E388A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -709,23 +725,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -744,9 +747,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>603738</xdr:colOff>
+          <xdr:colOff>601980</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>177689</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -756,7 +759,62 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E150712-7A58-3E12-90FB-39B50DC3293A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1196340</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E36564-7F94-261F-D6B8-8FC9239439F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1101,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5130A29-4517-41F2-8A8A-FB7B3A0F9403}">
-  <dimension ref="B1:J21"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1176,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="22"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
@@ -1129,45 +1187,45 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="23"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="J3" s="24"/>
+      <c r="D3" s="19"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
@@ -1188,8 +1246,8 @@
         <f t="shared" ref="H6:H17" si="0">G6*F6</f>
         <v>342.13</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
@@ -1210,10 +1268,10 @@
         <f t="shared" si="0"/>
         <v>268.06</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
@@ -1234,10 +1292,10 @@
         <f t="shared" si="0"/>
         <v>88.37</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
@@ -1258,17 +1316,19 @@
         <f t="shared" si="0"/>
         <v>30.23</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10">
         <v>1</v>
@@ -1280,10 +1340,10 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -1304,8 +1364,8 @@
         <f t="shared" si="0"/>
         <v>39.799999999999997</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
@@ -1326,10 +1386,10 @@
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
@@ -1350,8 +1410,8 @@
         <f t="shared" si="0"/>
         <v>26.2</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
@@ -1372,60 +1432,91 @@
         <f t="shared" si="0"/>
         <v>26.71</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="1"/>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>54.95</v>
+      </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="24"/>
+        <v>54.95</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="6"/>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>52.95</v>
+      </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
+        <v>105.9</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>4.95</v>
+      </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="24"/>
+        <v>4.95</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <f>SUM(H6:H17)</f>
-        <v>1232.5000000000002</v>
-      </c>
-      <c r="J19" s="24"/>
+        <v>1398.3000000000004</v>
+      </c>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
@@ -1436,9 +1527,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1450,16 +1544,20 @@
     <hyperlink ref="D12" r:id="rId6" xr:uid="{C3F501B0-2A00-47F0-9234-A18E3306E6E5}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{78B02358-A3EC-4E2A-B8AE-19C2660D7C63}"/>
     <hyperlink ref="D14" r:id="rId8" xr:uid="{00F757E0-DEDB-4680-AD9A-53D0E19B9BAA}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{93EF52E0-61F2-4CBF-BCA2-8301FCB44D81}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{AB7E5BC3-BAD8-4507-87A2-19E906DEC5FB}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{243C3159-D701-404F-B2F0-D7FDCABF93C4}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{F2C35688-9E01-4EBD-A32E-1F90311B59C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <drawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Bitmap-Bild" shapeId="1025" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+        <oleObject progId="Bitmap-Bild" shapeId="1025" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1478,13 +1576,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Bitmap-Bild" shapeId="1025" r:id="rId12"/>
+        <oleObject progId="Bitmap-Bild" shapeId="1025" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1026" r:id="rId14">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1026" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1503,13 +1601,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1026" r:id="rId14"/>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1026" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1027" r:id="rId16">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1027" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1528,13 +1626,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1027" r:id="rId16"/>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1027" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1028" r:id="rId18">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1028" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1553,13 +1651,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1028" r:id="rId18"/>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1028" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1029" r:id="rId20">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1029" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1578,13 +1676,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1029" r:id="rId20"/>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1029" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1030" r:id="rId22">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1030" r:id="rId26">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1603,7 +1701,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1030" r:id="rId22"/>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1030" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1031" r:id="rId28">
+          <objectPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1196340</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1031" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/KyoceraAVX.xlsx
+++ b/KyoceraAVX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345EDAF4-A337-4B18-8DC1-F8D6EB4FBC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F970AA7-C818-4ADC-B4A7-316BD3F53C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{8E876107-3061-4174-A041-0A66F8CCC5FE}"/>
+    <workbookView xWindow="57480" yWindow="7095" windowWidth="29040" windowHeight="15720" xr2:uid="{8E876107-3061-4174-A041-0A66F8CCC5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>amazon.de</t>
   </si>
   <si>
-    <t>Lattepanda</t>
-  </si>
-  <si>
     <t>dfrobot.com</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>JetKo Tomahawk Belted Reifen</t>
+  </si>
+  <si>
+    <t>Lattepanda 3 Delta</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E36564-7F94-261F-D6B8-8FC9239439F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -835,23 +835,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1161,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5130A29-4517-41F2-8A8A-FB7B3A0F9403}">
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1256,7 @@
         <v>268.06</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="22"/>
     </row>
@@ -1293,7 +1280,7 @@
         <v>88.37</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="22"/>
     </row>
@@ -1317,14 +1304,14 @@
         <v>30.23</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1341,7 +1328,7 @@
         <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="22"/>
     </row>
@@ -1370,10 +1357,10 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12">
@@ -1387,14 +1374,14 @@
         <v>370</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
@@ -1416,10 +1403,10 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14">
@@ -1438,10 +1425,10 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>27</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15">
@@ -1460,10 +1447,10 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16">
@@ -1482,10 +1469,10 @@
     <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="12">
@@ -1499,7 +1486,7 @@
         <v>4.95</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="22"/>
     </row>
